--- a/inst/impute/results/covid19deaths_impute_age_group3.xlsx
+++ b/inst/impute/results/covid19deaths_impute_age_group3.xlsx
@@ -443,7 +443,7 @@
         <v>347</v>
       </c>
       <c r="C2" t="n">
-        <v>1013.02772707342</v>
+        <v>1187.93840728997</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -467,7 +467,7 @@
         <v>1701</v>
       </c>
       <c r="C3" t="n">
-        <v>8198.14316753041</v>
+        <v>9882.09242957526</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>5992</v>
       </c>
       <c r="C4" t="n">
-        <v>33871.9601290054</v>
+        <v>42112.842276823</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -515,7 +515,7 @@
         <v>42538</v>
       </c>
       <c r="C5" t="n">
-        <v>258456.500730984</v>
+        <v>335858.550338804</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -539,7 +539,7 @@
         <v>65905</v>
       </c>
       <c r="C6" t="n">
-        <v>334698.417940776</v>
+        <v>469911.860960396</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -563,7 +563,7 @@
         <v>89367</v>
       </c>
       <c r="C7" t="n">
-        <v>456314.367456642</v>
+        <v>703336.494094044</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>107056</v>
       </c>
       <c r="C8" t="n">
-        <v>218466.197845879</v>
+        <v>436932.395691759</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -608,10 +608,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1407.672</v>
+        <v>1406.852</v>
       </c>
       <c r="C9" t="n">
-        <v>76969.1915297464</v>
+        <v>90444.7790228841</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -620,19 +620,19 @@
         <v>1352.975</v>
       </c>
       <c r="F9" t="n">
-        <v>1468.025</v>
+        <v>1472.025</v>
       </c>
       <c r="G9" t="n">
-        <v>76220.6250861655</v>
+        <v>89477.0483559981</v>
       </c>
       <c r="H9" t="n">
-        <v>77916.2493294663</v>
+        <v>91632.6816333814</v>
       </c>
       <c r="I9" t="n">
         <v>1476</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.63</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="10">
@@ -640,31 +640,31 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>4341.597</v>
+        <v>4339.514</v>
       </c>
       <c r="C10" t="n">
-        <v>239978.878660172</v>
+        <v>289101.729873888</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4246</v>
+        <v>4250.95</v>
       </c>
       <c r="F10" t="n">
-        <v>4450</v>
+        <v>4431</v>
       </c>
       <c r="G10" t="n">
-        <v>236475.982486604</v>
+        <v>284776.379572792</v>
       </c>
       <c r="H10" t="n">
-        <v>244119.098852283</v>
+        <v>293737.045323186</v>
       </c>
       <c r="I10" t="n">
         <v>4272</v>
       </c>
       <c r="J10" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="11">
@@ -672,31 +672,31 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>11867.975</v>
+        <v>11864.143</v>
       </c>
       <c r="C11" t="n">
-        <v>578248.383600249</v>
+        <v>719436.965135592</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>11696.975</v>
+        <v>11704</v>
       </c>
       <c r="F11" t="n">
-        <v>12033.05</v>
+        <v>12021.075</v>
       </c>
       <c r="G11" t="n">
-        <v>562894.571767236</v>
+        <v>701510.359687137</v>
       </c>
       <c r="H11" t="n">
-        <v>596149.636313659</v>
+        <v>739849.090429522</v>
       </c>
       <c r="I11" t="n">
         <v>11291</v>
       </c>
       <c r="J11" t="n">
-        <v>5.11</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="12">
@@ -704,25 +704,25 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>58584.233</v>
+        <v>58585.265</v>
       </c>
       <c r="C12" t="n">
-        <v>1581589.41130233</v>
+        <v>2055418.48908033</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>58173</v>
+        <v>58190.925</v>
       </c>
       <c r="F12" t="n">
-        <v>58960.125</v>
+        <v>58941.025</v>
       </c>
       <c r="G12" t="n">
-        <v>1543182.33122672</v>
+        <v>2000406.288246</v>
       </c>
       <c r="H12" t="n">
-        <v>1620532.75983006</v>
+        <v>2106574.1469916</v>
       </c>
       <c r="I12" t="n">
         <v>56630</v>
@@ -736,31 +736,31 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>84493.012</v>
+        <v>84503.577</v>
       </c>
       <c r="C13" t="n">
-        <v>1285729.542898</v>
+        <v>1805515.32074399</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>84137.95</v>
+        <v>84137.925</v>
       </c>
       <c r="F13" t="n">
-        <v>84855.025</v>
+        <v>84886.075</v>
       </c>
       <c r="G13" t="n">
-        <v>1261332.86402953</v>
+        <v>1770491.00950057</v>
       </c>
       <c r="H13" t="n">
-        <v>1312552.07668933</v>
+        <v>1843661.41011112</v>
       </c>
       <c r="I13" t="n">
         <v>82059</v>
       </c>
       <c r="J13" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="14">
@@ -768,25 +768,25 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>108747.334</v>
+        <v>108752.152</v>
       </c>
       <c r="C14" t="n">
-        <v>1289026.70028776</v>
+        <v>1986940.91991419</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>108332.875</v>
+        <v>108362.975</v>
       </c>
       <c r="F14" t="n">
-        <v>109144.125</v>
+        <v>109127</v>
       </c>
       <c r="G14" t="n">
-        <v>1265401.16422006</v>
+        <v>1950745.37636167</v>
       </c>
       <c r="H14" t="n">
-        <v>1313265.15816311</v>
+        <v>2026011.26302388</v>
       </c>
       <c r="I14" t="n">
         <v>105964</v>
@@ -800,25 +800,25 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>125615.146</v>
+        <v>125616.049</v>
       </c>
       <c r="C15" t="n">
-        <v>549877.064192257</v>
+        <v>1099677.96087988</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>125226.6</v>
+        <v>125227.95</v>
       </c>
       <c r="F15" t="n">
-        <v>125988.025</v>
+        <v>125958.05</v>
       </c>
       <c r="G15" t="n">
-        <v>539946.380989598</v>
+        <v>1079572.41141557</v>
       </c>
       <c r="H15" t="n">
-        <v>560129.823101243</v>
+        <v>1120555.25501198</v>
       </c>
       <c r="I15" t="n">
         <v>122488</v>
@@ -832,31 +832,31 @@
         <v>10</v>
       </c>
       <c r="B16" t="n">
-        <v>3948.746</v>
+        <v>3950.982</v>
       </c>
       <c r="C16" t="n">
-        <v>364009.953603826</v>
+        <v>427953.964421378</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>3809.975</v>
+        <v>3819</v>
       </c>
       <c r="F16" t="n">
-        <v>4091.025</v>
+        <v>4095.1</v>
       </c>
       <c r="G16" t="n">
-        <v>334230.409467561</v>
+        <v>392315.878145791</v>
       </c>
       <c r="H16" t="n">
-        <v>393725.573690792</v>
+        <v>462802.74737469</v>
       </c>
       <c r="I16" t="n">
         <v>1476</v>
       </c>
       <c r="J16" t="n">
-        <v>167.53</v>
+        <v>167.68</v>
       </c>
     </row>
     <row r="17">
@@ -864,31 +864,31 @@
         <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>8755.328</v>
+        <v>8753.028</v>
       </c>
       <c r="C17" t="n">
-        <v>1039587.1294563</v>
+        <v>1254680.35258937</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>8561.9</v>
+        <v>8570</v>
       </c>
       <c r="F17" t="n">
-        <v>8940.1</v>
+        <v>8948.025</v>
       </c>
       <c r="G17" t="n">
-        <v>972935.943077098</v>
+        <v>1177172.18379186</v>
       </c>
       <c r="H17" t="n">
-        <v>1107785.06970015</v>
+        <v>1329726.40983639</v>
       </c>
       <c r="I17" t="n">
         <v>4272</v>
       </c>
       <c r="J17" t="n">
-        <v>104.95</v>
+        <v>104.89</v>
       </c>
     </row>
     <row r="18">
@@ -896,31 +896,31 @@
         <v>13</v>
       </c>
       <c r="B18" t="n">
-        <v>18296.538</v>
+        <v>18308.675</v>
       </c>
       <c r="C18" t="n">
-        <v>1935787.46575898</v>
+        <v>2408610.73299816</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>18053.85</v>
+        <v>18065.85</v>
       </c>
       <c r="F18" t="n">
-        <v>18545.025</v>
+        <v>18554.05</v>
       </c>
       <c r="G18" t="n">
-        <v>1852851.46444615</v>
+        <v>2310000.31684702</v>
       </c>
       <c r="H18" t="n">
-        <v>2011304.16778865</v>
+        <v>2505008.63761875</v>
       </c>
       <c r="I18" t="n">
         <v>11291</v>
       </c>
       <c r="J18" t="n">
-        <v>62.05</v>
+        <v>62.15</v>
       </c>
     </row>
     <row r="19">
@@ -928,31 +928,31 @@
         <v>14</v>
       </c>
       <c r="B19" t="n">
-        <v>65776.153</v>
+        <v>65769.043</v>
       </c>
       <c r="C19" t="n">
-        <v>2871587.54909256</v>
+        <v>3730399.28493871</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>65458.925</v>
+        <v>65430.95</v>
       </c>
       <c r="F19" t="n">
-        <v>66116.025</v>
+        <v>66088</v>
       </c>
       <c r="G19" t="n">
-        <v>2802055.47908469</v>
+        <v>3640047.93588131</v>
       </c>
       <c r="H19" t="n">
-        <v>2946792.18112524</v>
+        <v>3821948.27178714</v>
       </c>
       <c r="I19" t="n">
         <v>56630</v>
       </c>
       <c r="J19" t="n">
-        <v>16.15</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="20">
@@ -960,31 +960,31 @@
         <v>15</v>
       </c>
       <c r="B20" t="n">
-        <v>90356.712</v>
+        <v>90345.113</v>
       </c>
       <c r="C20" t="n">
-        <v>1962018.49163823</v>
+        <v>2753423.4006112</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="n">
-        <v>89998.85</v>
+        <v>89998</v>
       </c>
       <c r="F20" t="n">
-        <v>90732</v>
+        <v>90674.025</v>
       </c>
       <c r="G20" t="n">
-        <v>1910483.5907514</v>
+        <v>2683292.10437231</v>
       </c>
       <c r="H20" t="n">
-        <v>2013647.24105897</v>
+        <v>2820446.44900611</v>
       </c>
       <c r="I20" t="n">
         <v>82059</v>
       </c>
       <c r="J20" t="n">
-        <v>10.11</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="21">
@@ -992,25 +992,25 @@
         <v>16</v>
       </c>
       <c r="B21" t="n">
-        <v>113347.593</v>
+        <v>113352.246</v>
       </c>
       <c r="C21" t="n">
-        <v>1708255.60107227</v>
+        <v>2632805.33388653</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>112993.775</v>
+        <v>112987.95</v>
       </c>
       <c r="F21" t="n">
-        <v>113714</v>
+        <v>113687.225</v>
       </c>
       <c r="G21" t="n">
-        <v>1675450.26931932</v>
+        <v>2585808.49738799</v>
       </c>
       <c r="H21" t="n">
-        <v>1741516.23923137</v>
+        <v>2680921.01995001</v>
       </c>
       <c r="I21" t="n">
         <v>105964</v>
@@ -1024,31 +1024,31 @@
         <v>17</v>
       </c>
       <c r="B22" t="n">
-        <v>129193.106</v>
+        <v>129197.996</v>
       </c>
       <c r="C22" t="n">
-        <v>694389.516530917</v>
+        <v>1388815.67506939</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>128866.975</v>
+        <v>128848.975</v>
       </c>
       <c r="F22" t="n">
-        <v>129540.025</v>
+        <v>129528.025</v>
       </c>
       <c r="G22" t="n">
-        <v>679231.699027168</v>
+        <v>1360997.36199315</v>
       </c>
       <c r="H22" t="n">
-        <v>708878.103541657</v>
+        <v>1418256.25699745</v>
       </c>
       <c r="I22" t="n">
         <v>122488</v>
       </c>
       <c r="J22" t="n">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>
